--- a/WorkBot/main/backend/ordering/OrderFiles/Coca-Cola/Coca-Cola_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Coca-Cola/Coca-Cola_Triphammer_20250704.xlsx
@@ -451,297 +451,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119826</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coca-Cola Bottles</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>121765</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coca-Cola Zero Sugar Bottles</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>52.92</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>119827</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diet Coke Bottles</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>117803</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr Pepper Bottles</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>117808</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr Pepper Diet Bottles</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>132296</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Smart Water - 23.7oz</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>38.56</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>154.24</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>103029</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sprite Bottles</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55.16</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>156091</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitamin Water - Energy</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>156090</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vitamin Water - Power C</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>156089</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitamin Water - XXX</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>156079</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vitamin Water - Zero Squeezed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
